--- a/natmiOut/OldD4/LR-pairs_lrc2p/Lama1-Itga1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Lama1-Itga1.xlsx
@@ -534,16 +534,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.494916642723955</v>
+        <v>0.5587383333333333</v>
       </c>
       <c r="H2">
-        <v>0.494916642723955</v>
+        <v>1.676215</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,34 +552,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>60.0192629608699</v>
+        <v>62.07563766666667</v>
       </c>
       <c r="N2">
-        <v>60.0192629608699</v>
+        <v>186.226913</v>
       </c>
       <c r="O2">
-        <v>0.4645965709407801</v>
+        <v>0.4556169394345516</v>
       </c>
       <c r="P2">
-        <v>0.4645965709407801</v>
+        <v>0.53808222397892</v>
       </c>
       <c r="Q2">
-        <v>29.70453212335996</v>
+        <v>34.68403833047722</v>
       </c>
       <c r="R2">
-        <v>29.70453212335996</v>
+        <v>312.156344974295</v>
       </c>
       <c r="S2">
-        <v>0.4645965709407801</v>
+        <v>0.4556169394345516</v>
       </c>
       <c r="T2">
-        <v>0.4645965709407801</v>
+        <v>0.53808222397892</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.494916642723955</v>
+        <v>0.5587383333333333</v>
       </c>
       <c r="H3">
-        <v>0.494916642723955</v>
+        <v>1.676215</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -614,34 +614,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.71418317261223</v>
+        <v>8.371752000000001</v>
       </c>
       <c r="N3">
-        <v>7.71418317261223</v>
+        <v>25.115256</v>
       </c>
       <c r="O3">
-        <v>0.05971387972460307</v>
+        <v>0.06144619962548196</v>
       </c>
       <c r="P3">
-        <v>0.05971387972460307</v>
+        <v>0.07256777544435759</v>
       </c>
       <c r="Q3">
-        <v>3.817877637146873</v>
+        <v>4.677618759560001</v>
       </c>
       <c r="R3">
-        <v>3.817877637146873</v>
+        <v>42.09856883604</v>
       </c>
       <c r="S3">
-        <v>0.05971387972460307</v>
+        <v>0.06144619962548196</v>
       </c>
       <c r="T3">
-        <v>0.05971387972460307</v>
+        <v>0.07256777544435759</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.494916642723955</v>
+        <v>0.5587383333333333</v>
       </c>
       <c r="H4">
-        <v>0.494916642723955</v>
+        <v>1.676215</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,34 +676,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.301902572283414</v>
+        <v>0.4371553333333333</v>
       </c>
       <c r="N4">
-        <v>0.301902572283414</v>
+        <v>1.311466</v>
       </c>
       <c r="O4">
-        <v>0.002336964716353161</v>
+        <v>0.003208591687778628</v>
       </c>
       <c r="P4">
-        <v>0.002336964716353161</v>
+        <v>0.003789337054374833</v>
       </c>
       <c r="Q4">
-        <v>0.1494166075042334</v>
+        <v>0.2442554423544445</v>
       </c>
       <c r="R4">
-        <v>0.1494166075042334</v>
+        <v>2.19829898119</v>
       </c>
       <c r="S4">
-        <v>0.002336964716353161</v>
+        <v>0.003208591687778628</v>
       </c>
       <c r="T4">
-        <v>0.002336964716353161</v>
+        <v>0.003789337054374833</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.494916642723955</v>
+        <v>0.5587383333333333</v>
       </c>
       <c r="H5">
-        <v>0.494916642723955</v>
+        <v>1.676215</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -738,34 +738,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.19949602196181</v>
+        <v>2.718766</v>
       </c>
       <c r="N5">
-        <v>1.19949602196181</v>
+        <v>8.156298</v>
       </c>
       <c r="O5">
-        <v>0.009285048019064952</v>
+        <v>0.01995494352567695</v>
       </c>
       <c r="P5">
-        <v>0.009285048019064952</v>
+        <v>0.0235667277976885</v>
       </c>
       <c r="Q5">
-        <v>0.5936505441500785</v>
+        <v>1.519078783563333</v>
       </c>
       <c r="R5">
-        <v>0.5936505441500785</v>
+        <v>13.67170905207</v>
       </c>
       <c r="S5">
-        <v>0.009285048019064952</v>
+        <v>0.01995494352567695</v>
       </c>
       <c r="T5">
-        <v>0.009285048019064952</v>
+        <v>0.0235667277976885</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.494916642723955</v>
+        <v>0.5587383333333333</v>
       </c>
       <c r="H6">
-        <v>0.494916642723955</v>
+        <v>1.676215</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -800,34 +800,34 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>59.9509192552795</v>
+        <v>62.6419255</v>
       </c>
       <c r="N6">
-        <v>59.9509192552795</v>
+        <v>125.283851</v>
       </c>
       <c r="O6">
-        <v>0.4640675365991989</v>
+        <v>0.4597733257265108</v>
       </c>
       <c r="P6">
-        <v>0.4640675365991989</v>
+        <v>0.3619939357246589</v>
       </c>
       <c r="Q6">
-        <v>29.67070768603784</v>
+        <v>35.00044505066084</v>
       </c>
       <c r="R6">
-        <v>29.67070768603784</v>
+        <v>210.002670303965</v>
       </c>
       <c r="S6">
-        <v>0.4640675365991989</v>
+        <v>0.4597733257265108</v>
       </c>
       <c r="T6">
-        <v>0.4640675365991989</v>
+        <v>0.3619939357246589</v>
       </c>
     </row>
   </sheetData>
